--- a/data/trans_camb/P6903-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P6903-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 14,34</t>
+          <t>-19,23; 14,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 31,22</t>
+          <t>-7,22; 29,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 24,95</t>
+          <t>-9,68; 26,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 19,69</t>
+          <t>-15,86; 21,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,68; 41,35</t>
+          <t>3,85; 41,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 36,44</t>
+          <t>5,09; 38,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 12,28</t>
+          <t>-10,95; 12,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 29,18</t>
+          <t>3,38; 30,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,24; 27,48</t>
+          <t>3,13; 28,21</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-57,42; 97,01</t>
+          <t>-58,41; 82,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,38; 186,57</t>
+          <t>-26,44; 170,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-33,73; 149,1</t>
+          <t>-37,69; 145,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,53; 162,84</t>
+          <t>-49,54; 146,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,03; 305,5</t>
+          <t>11,1; 280,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 227,84</t>
+          <t>14,4; 269,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,72; 64,7</t>
+          <t>-39,67; 67,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,13; 164,28</t>
+          <t>11,53; 170,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,36; 159,11</t>
+          <t>9,79; 155,66</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 25,41</t>
+          <t>-14,45; 25,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 40,71</t>
+          <t>-3,98; 40,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 18,95</t>
+          <t>-18,28; 17,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 15,2</t>
+          <t>-22,87; 14,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 37,73</t>
+          <t>-2,82; 35,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 25,75</t>
+          <t>-8,02; 26,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 14,91</t>
+          <t>-13,47; 13,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 33,05</t>
+          <t>1,7; 33,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 17,35</t>
+          <t>-6,34; 17,62</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 201,59</t>
+          <t>-52,49; 202,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 316,37</t>
+          <t>-17,01; 293,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,52; 152,7</t>
+          <t>-57,19; 133,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-83,12; 161,54</t>
+          <t>-88,56; 171,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 382,94</t>
+          <t>-24,34; 327,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,05; 336,81</t>
+          <t>-30,48; 293,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,31; 111,23</t>
+          <t>-53,61; 93,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,51; 230,23</t>
+          <t>3,05; 245,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-31,44; 122,82</t>
+          <t>-26,74; 135,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-27,89; -0,48</t>
+          <t>-27,06; 1,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 16,57</t>
+          <t>-16,28; 15,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,78; 16,08</t>
+          <t>-19,91; 17,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,64; 39,14</t>
+          <t>-23,32; 35,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 65,54</t>
+          <t>-18,6; 67,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,29; 34,14</t>
+          <t>-29,08; 34,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 5,08</t>
+          <t>-20,3; 4,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 18,34</t>
+          <t>-11,29; 18,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 14,92</t>
+          <t>-16,32; 14,04</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-64,58; -0,23</t>
+          <t>-64,23; 8,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,06; 58,75</t>
+          <t>-38,31; 55,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,46; 57,19</t>
+          <t>-50,2; 56,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-47,48; 453,81</t>
+          <t>-49,04; 360,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 578,86</t>
+          <t>-51,09; 609,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,71; 405,8</t>
+          <t>-57,81; 358,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-48,95; 18,65</t>
+          <t>-49,36; 15,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 64,8</t>
+          <t>-28,66; 61,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-37,86; 54,0</t>
+          <t>-40,77; 44,94</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 1,97</t>
+          <t>-19,78; 1,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 18,88</t>
+          <t>-3,36; 19,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 16,11</t>
+          <t>-7,33; 15,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 27,88</t>
+          <t>-9,64; 26,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 22,58</t>
+          <t>-10,42; 21,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 20,75</t>
+          <t>-8,98; 21,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 6,88</t>
+          <t>-11,7; 6,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 15,59</t>
+          <t>-2,13; 16,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 13,64</t>
+          <t>-3,46; 13,71</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-54,12; 6,75</t>
+          <t>-55,49; 4,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 71,11</t>
+          <t>-8,73; 71,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 56,37</t>
+          <t>-19,86; 54,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 128,99</t>
+          <t>-23,33; 116,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,84; 109,13</t>
+          <t>-25,74; 103,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 100,29</t>
+          <t>-21,14; 108,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-33,79; 25,13</t>
+          <t>-32,03; 24,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 55,57</t>
+          <t>-6,86; 55,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 48,12</t>
+          <t>-10,15; 47,06</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,85; 16,58</t>
+          <t>-23,23; 15,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 21,86</t>
+          <t>-11,73; 24,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 24,79</t>
+          <t>-12,4; 25,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 17,14</t>
+          <t>-19,99; 19,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,74; 18,94</t>
+          <t>-16,59; 21,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-33,72; 15,85</t>
+          <t>-31,6; 15,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 10,73</t>
+          <t>-16,68; 11,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 15,06</t>
+          <t>-10,95; 15,75</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 15,04</t>
+          <t>-20,41; 14,75</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-56,18; 68,19</t>
+          <t>-57,85; 63,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 87,14</t>
+          <t>-29,05; 93,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-32,03; 94,5</t>
+          <t>-30,98; 101,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 48,34</t>
+          <t>-40,44; 60,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-35,49; 54,99</t>
+          <t>-35,6; 62,3</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-63,22; 41,35</t>
+          <t>-59,44; 39,87</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-37,82; 30,8</t>
+          <t>-37,24; 37,41</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-22,49; 45,41</t>
+          <t>-22,8; 48,01</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-46,7; 43,5</t>
+          <t>-46,07; 42,56</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -1,01</t>
+          <t>-14,13; -1,34</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 14,48</t>
+          <t>0,2; 14,16</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 10,64</t>
+          <t>-4,73; 10,38</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 13,04</t>
+          <t>-5,4; 12,8</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,29; 20,53</t>
+          <t>2,1; 19,88</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 16,84</t>
+          <t>-5,51; 16,12</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 2,76</t>
+          <t>-8,19; 1,88</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,87; 14,49</t>
+          <t>3,17; 14,26</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 10,86</t>
+          <t>-1,86; 10,18</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-41,26; -4,26</t>
+          <t>-40,79; -4,91</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 51,56</t>
+          <t>0,38; 50,01</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 37,69</t>
+          <t>-14,09; 35,78</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 51,28</t>
+          <t>-15,47; 48,02</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>5,88; 78,05</t>
+          <t>6,26; 78,9</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 63,96</t>
+          <t>-13,31; 63,08</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-24,26; 10,46</t>
+          <t>-24,12; 6,57</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>7,59; 49,2</t>
+          <t>9,51; 50,71</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 37,36</t>
+          <t>-5,31; 35,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6903-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P6903-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
